--- a/src/resources/TestAppProject.xlsx
+++ b/src/resources/TestAppProject.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8D699E9D-2F5C-4293-A6FA-16B399D9F4E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{25E23524-9B9F-464D-BDC7-7F82A53C9DDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" xr2:uid="{6A2EAC76-F80F-41F0-BC38-DD43CFF9E3A2}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" activeTab="1" xr2:uid="{6A2EAC76-F80F-41F0-BC38-DD43CFF9E3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Messages" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>rastogiapoorv17@gmail.com</t>
   </si>
@@ -39,6 +40,21 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Uninsatll Message</t>
+  </si>
+  <si>
+    <t>Install Message</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Succeeded to install "PDF Actions" addon!</t>
+  </si>
+  <si>
+    <t>Succeeded to uninstall "PDF Actions" addon!</t>
   </si>
 </sst>
 </file>
@@ -403,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9227A5-A449-4F0F-9338-A168DBBE6AD2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,4 +456,41 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AAF03F-B50B-42A9-B9A3-79AA98C7A81A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>